--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.040621-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.040621-2.xlsx_with_dialog_acts.xlsx
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2603,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4013,12 +4013,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4089,12 +4089,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4127,12 +4127,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5799,12 +5799,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5913,12 +5913,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5951,12 +5951,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6597,12 +6597,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6749,12 +6749,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7053,12 +7053,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7091,12 +7091,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7281,12 +7281,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7357,12 +7357,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7661,12 +7661,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7699,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8307,12 +8307,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8459,12 +8459,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8497,12 +8497,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8535,12 +8535,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8729,12 +8729,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
